--- a/outputs/train-g__Methanobrevibacter_B.xlsx
+++ b/outputs/train-g__Methanobrevibacter_B.xlsx
@@ -18,321 +18,327 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
   <si>
     <t>Row</t>
   </si>
   <si>
+    <t>GB_GCA_002509605.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315215.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315215.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000404165.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000404165.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314545.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314545.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315655.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315685.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_8.fasta</t>
+  </si>
+  <si>
+    <t>s__Methanobrevibacter_B boviskoreani</t>
+  </si>
+  <si>
+    <t>s__Methanobrevibacter_B sp002208625</t>
+  </si>
+  <si>
+    <t>s__Methanobrevibacter_B sp900314605</t>
+  </si>
+  <si>
+    <t>s__Methanobrevibacter_B wolinii</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509605.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315215.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315215.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000404165.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000404165.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315655.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315655.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315655.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315685.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_5.fasta</t>
+  </si>
+  <si>
     <t>GB_GCA_002509605.1_10.fasta</t>
   </si>
   <si>
+    <t>GB_GCA_002509605.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509605.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000404165.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000404165.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000404165.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314545.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315655.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315655.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315215.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315215.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000404165.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000404165.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314545.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314545.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315655.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315685.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315685.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509605.1_1.fasta</t>
+  </si>
+  <si>
     <t>GB_GCA_002509605.1_19.fasta</t>
   </si>
   <si>
-    <t>GB_GCA_002509605.1_4.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_12.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_14.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_18.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_6.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000320505.1_12.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000404165.1_0.fasta</t>
+    <t>RS_GCF_000320505.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000404165.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_3.fasta</t>
   </si>
   <si>
     <t>GB_GCA_900314545.1_1.fasta</t>
   </si>
   <si>
-    <t>GB_GCA_900314545.1_2.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314545.1_9.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_19.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_8.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315655.1_2.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315685.1_1.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315685.1_11.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315685.1_14.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315685.1_4.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315685.1_6.fasta</t>
-  </si>
-  <si>
-    <t>s__Methanobrevibacter_B boviskoreani</t>
-  </si>
-  <si>
-    <t>s__Methanobrevibacter_B sp900314605</t>
-  </si>
-  <si>
-    <t>prediction</t>
-  </si>
-  <si>
-    <t>actual</t>
-  </si>
-  <si>
-    <t>GB_GCA_002509605.1_17.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_002509605.1_3.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_002509605.1_7.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_002509605.1_9.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_1.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_7.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000320505.1_10.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000320505.1_14.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000320505.1_17.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000320505.1_4.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000404165.1_10.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000404165.1_11.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314545.1_8.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_12.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_17.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_3.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315655.1_0.fasta</t>
+    <t>GB_GCA_900314545.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314545.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_7.fasta</t>
   </si>
   <si>
     <t>GB_GCA_900315655.1_12.fasta</t>
   </si>
   <si>
-    <t>GB_GCA_900315655.1_14.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315685.1_3.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_002509605.1_1.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_002509605.1_12.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_002509605.1_15.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_15.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_3.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_4.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_9.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000320505.1_19.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000320505.1_3.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000320505.1_6.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000404165.1_8.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314545.1_10.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_0.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_10.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_15.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_2.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315655.1_13.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315655.1_5.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315685.1_5.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315685.1_9.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_002509605.1_6.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_002509605.1_8.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_2.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_8.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000320505.1_11.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000320505.1_13.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000320505.1_2.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000320505.1_9.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000404165.1_16.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000404165.1_2.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000404165.1_5.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314545.1_14.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314545.1_3.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314545.1_5.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_18.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_4.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_9.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315655.1_16.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315655.1_9.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315685.1_17.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_002509605.1_0.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_002509605.1_14.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_0.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_10.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315215.1_19.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000320505.1_18.fasta</t>
-  </si>
-  <si>
-    <t>RS_GCF_000404165.1_1.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314545.1_0.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314545.1_15.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314545.1_16.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314545.1_6.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_11.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_14.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_5.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_6.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900314605.1_7.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315655.1_7.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315685.1_12.fasta</t>
-  </si>
-  <si>
-    <t>GB_GCA_900315685.1_15.fasta</t>
+    <t>GB_GCA_900315685.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900315685.1_13.fasta</t>
   </si>
   <si>
     <t>GB_GCA_900315685.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_4.fasta</t>
   </si>
 </sst>
 </file>
@@ -396,14 +402,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="true"/>
     <col min="2" max="2" width="36.140625" customWidth="true"/>
     <col min="3" max="3" width="35.7109375" customWidth="true"/>
-    <col min="4" max="4" width="10.28515625" customWidth="true"/>
-    <col min="5" max="5" width="6.42578125" customWidth="true"/>
+    <col min="4" max="4" width="35.7109375" customWidth="true"/>
+    <col min="5" max="5" width="30.85546875" customWidth="true"/>
+    <col min="6" max="6" width="10.28515625" customWidth="true"/>
+    <col min="7" max="7" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -422,21 +430,33 @@
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
@@ -445,15 +465,21 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
@@ -462,15 +488,21 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
@@ -479,15 +511,21 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
@@ -496,15 +534,21 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.9999999999999778</v>
+        <v>0.48717376377280797</v>
       </c>
       <c r="C6">
-        <v>2.2204460492502639e-14</v>
+        <v>1.5918540238463715e-13</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.51282623622687362</v>
       </c>
       <c r="E6">
+        <v>1.591854023846372e-13</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
@@ -513,15 +557,21 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.9999999999999778</v>
+        <v>0.49999999999997774</v>
       </c>
       <c r="C7">
-        <v>2.2204460492502639e-14</v>
+        <v>0.49999999999997774</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2.2204460492502471e-14</v>
       </c>
       <c r="E7">
+        <v>2.2204460492502471e-14</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
@@ -530,15 +580,21 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
@@ -547,16 +603,22 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -564,16 +626,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -584,13 +652,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -601,13 +675,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -618,13 +698,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +721,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -649,16 +741,22 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.51249999999999996</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.48749999999999999</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -669,13 +767,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -686,13 +790,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -703,13 +813,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -720,13 +836,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -737,13 +859,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -754,13 +882,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -769,14 +903,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="true"/>
     <col min="2" max="2" width="36.140625" customWidth="true"/>
     <col min="3" max="3" width="35.7109375" customWidth="true"/>
-    <col min="4" max="4" width="10.28515625" customWidth="true"/>
-    <col min="5" max="5" width="6.42578125" customWidth="true"/>
+    <col min="4" max="4" width="35.7109375" customWidth="true"/>
+    <col min="5" max="5" width="30.85546875" customWidth="true"/>
+    <col min="6" max="6" width="10.28515625" customWidth="true"/>
+    <col min="7" max="7" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -795,345 +931,471 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>0.47499999999999998</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.52500000000000002</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>0.47499999999999998</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.52500000000000002</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19">
-        <v>0.47499999999999998</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.52500000000000002</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1142,14 +1404,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="true"/>
     <col min="2" max="2" width="36.140625" customWidth="true"/>
     <col min="3" max="3" width="35.7109375" customWidth="true"/>
-    <col min="4" max="4" width="10.28515625" customWidth="true"/>
-    <col min="5" max="5" width="6.42578125" customWidth="true"/>
+    <col min="4" max="4" width="35.7109375" customWidth="true"/>
+    <col min="5" max="5" width="30.85546875" customWidth="true"/>
+    <col min="6" max="6" width="10.28515625" customWidth="true"/>
+    <col min="7" max="7" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1168,345 +1432,471 @@
       <c r="E1" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2">
-        <v>0.9999999999999778</v>
+        <v>0.99543073708128138</v>
       </c>
       <c r="C2">
-        <v>2.2204460492502639e-14</v>
+        <v>0.004569262918674156</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2.2198117498583879e-14</v>
       </c>
       <c r="E2">
+        <v>2.2198117498583879e-14</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>0.9999999999999778</v>
+        <v>0.99250938705973046</v>
       </c>
       <c r="C3">
-        <v>2.2204460492502639e-14</v>
+        <v>0.0074906129402250651</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2.2198169947350947e-14</v>
       </c>
       <c r="E3">
+        <v>2.2198169947350947e-14</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4">
-        <v>0.9999999999999778</v>
+        <v>0.99628356922057248</v>
       </c>
       <c r="C4">
-        <v>2.2204460492502639e-14</v>
+        <v>0.0037164307793832196</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2.2198126943804521e-14</v>
       </c>
       <c r="E4">
+        <v>2.2198126943804521e-14</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5">
-        <v>0.9999999999999778</v>
+        <v>0.99714453387235591</v>
       </c>
       <c r="C5">
-        <v>2.2204460492502639e-14</v>
+        <v>0.0028554661275996839</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2.2198092751760299e-14</v>
       </c>
       <c r="E5">
+        <v>2.2198092751760299e-14</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6">
-        <v>0.9999999999999778</v>
+        <v>0.98995810982844468</v>
       </c>
       <c r="C6">
-        <v>2.2204460492502639e-14</v>
+        <v>0.010041890171510805</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2.2198189333493106e-14</v>
       </c>
       <c r="E6">
+        <v>2.2198189333493106e-14</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7">
-        <v>0.9999999999999778</v>
+        <v>0.99638999835593534</v>
       </c>
       <c r="C7">
-        <v>2.2204460492502639e-14</v>
+        <v>0.003610001644020222</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2.2198113340763524e-14</v>
       </c>
       <c r="E7">
+        <v>2.2198113340763524e-14</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8">
-        <v>0.9999999999999778</v>
+        <v>0.98840409050964806</v>
       </c>
       <c r="C8">
-        <v>2.2204460492502639e-14</v>
+        <v>0.011595909490307685</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2.2198291765882947e-14</v>
       </c>
       <c r="E8">
+        <v>2.2198291765882947e-14</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9">
-        <v>0.9999999999999778</v>
+        <v>0.077287437925542921</v>
       </c>
       <c r="C9">
-        <v>2.2204460492502639e-14</v>
+        <v>0.76813768622337131</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.077287437925542921</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.077287437925542962</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10">
-        <v>0.9999999999999778</v>
+        <v>0.021264096995381027</v>
       </c>
       <c r="C10">
-        <v>2.2204460492502639e-14</v>
+        <v>0.93620770901385675</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.02126409699538102</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.02126409699538101</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B11">
-        <v>0.9999999999999778</v>
+        <v>0.030766646009714696</v>
       </c>
       <c r="C11">
-        <v>2.2204460492502639e-14</v>
+        <v>0.90770006197085584</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.030766646009714682</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.030766646009714689</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12">
-        <v>0.9999999999999778</v>
+        <v>0.050097958218009414</v>
       </c>
       <c r="C12">
-        <v>2.2204460492502639e-14</v>
+        <v>0.8497061253459719</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.050097958218009428</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.0500979582180094</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2.2198086743802022e-14</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.0023234999059050711</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0.99767650009405062</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>2.2198086743802022e-14</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2.2198072831900695e-14</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.001511417344503919</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0.99848858265545182</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>2.2198072831900695e-14</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2.2199531483568133e-14</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.00089031032458929918</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0.9991096896753664</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>2.2199531483568133e-14</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.2198074992536072e-14</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.001651748069521852</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0.99834825193043386</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>2.2198074992536072e-14</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2.2198085368973915e-14</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.0020075598010391923</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0.99799244019891631</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>2.2198085368973915e-14</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2.2198215254941009e-14</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.012483849272584155</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>2.2198215254941009e-14</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0.98751615072737142</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2.2198303468568593e-14</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.012738445544468489</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>2.2198303468568593e-14</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0.98726155445548713</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2.2198290719996502e-14</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.012573640682046215</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>2.2198290719996502e-14</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0.98742635931790945</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2.2198269647647478e-14</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.011439722456468859</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>2.2198269647647478e-14</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0.98856027754348674</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1515,14 +1905,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="true"/>
     <col min="2" max="2" width="36.140625" customWidth="true"/>
     <col min="3" max="3" width="35.7109375" customWidth="true"/>
-    <col min="4" max="4" width="10.28515625" customWidth="true"/>
-    <col min="5" max="5" width="6.42578125" customWidth="true"/>
+    <col min="4" max="4" width="35.7109375" customWidth="true"/>
+    <col min="5" max="5" width="30.85546875" customWidth="true"/>
+    <col min="6" max="6" width="10.28515625" customWidth="true"/>
+    <col min="7" max="7" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1541,345 +1933,471 @@
       <c r="E1" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2.2204460492502639e-14</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11">
-        <v>0.9999999999999778</v>
+        <v>0.21520580990101251</v>
       </c>
       <c r="C11">
-        <v>2.2204460492502639e-14</v>
+        <v>0.35438257029696257</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.21520580990101251</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.21520580990101251</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.18421180899744113</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.18421180899744113</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0.44736457300767668</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0.18421180899744119</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1888,14 +2406,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="true"/>
     <col min="2" max="2" width="36.140625" customWidth="true"/>
     <col min="3" max="3" width="35.7109375" customWidth="true"/>
-    <col min="4" max="4" width="10.28515625" customWidth="true"/>
-    <col min="5" max="5" width="6.42578125" customWidth="true"/>
+    <col min="4" max="4" width="35.7109375" customWidth="true"/>
+    <col min="5" max="5" width="30.85546875" customWidth="true"/>
+    <col min="6" max="6" width="10.28515625" customWidth="true"/>
+    <col min="7" max="7" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1914,345 +2434,471 @@
       <c r="E1" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="F1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2">
-        <v>0.9999999999999778</v>
+        <v>0.99985169200533608</v>
       </c>
       <c r="C2">
-        <v>2.2204460492502639e-14</v>
+        <v>0.00014830799461945234</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2.2203637584072659e-14</v>
       </c>
       <c r="E2">
+        <v>2.2203637584072659e-14</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3">
-        <v>0.9999999999999778</v>
+        <v>0.99997416527530147</v>
       </c>
       <c r="C3">
-        <v>2.2204460492502639e-14</v>
+        <v>2.5834724654181439e-05</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2.2204317092087042e-14</v>
       </c>
       <c r="E3">
+        <v>2.2204317092087042e-14</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4">
-        <v>0.9999999999999778</v>
+        <v>0.99998060385840948</v>
       </c>
       <c r="C4">
-        <v>2.2204460492502639e-14</v>
+        <v>1.9396141546104626e-05</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2.2204352828553191e-14</v>
       </c>
       <c r="E4">
+        <v>2.2204352828553191e-14</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>0.9999999999999778</v>
+        <v>0.99998262529278903</v>
       </c>
       <c r="C5">
-        <v>2.2204460492502639e-14</v>
+        <v>1.7374707166687611e-05</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2.220436404853029e-14</v>
       </c>
       <c r="E5">
+        <v>2.220436404853029e-14</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6">
-        <v>0.9999999999999778</v>
+        <v>0.99989254764264823</v>
       </c>
       <c r="C6">
-        <v>2.2204460492502639e-14</v>
+        <v>0.00010745235730747767</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2.2203864204386983e-14</v>
       </c>
       <c r="E6">
+        <v>2.2203864204386983e-14</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B7">
-        <v>0.9999999999999778</v>
+        <v>0.0063643241359971747</v>
       </c>
       <c r="C7">
-        <v>2.2204460492502639e-14</v>
+        <v>0.98090702759200832</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.0063643241359971712</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.0063643241359971963</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8">
-        <v>0.9999999999999778</v>
+        <v>0.039823253004293381</v>
       </c>
       <c r="C8">
-        <v>2.2204460492502639e-14</v>
+        <v>0.88053024098711985</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.039823253004293395</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.039823253004293395</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2.220443141277718e-14</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5.2386199593329638e-06</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0.99999476137999621</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>2.220443141277718e-14</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.2204442659443122e-14</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3.2125493696509507e-06</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0.99999678745058596</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>2.2204442659443122e-14</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2.2204454989236131e-14</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>9.9138330888023702e-07</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0.9999990086166467</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>2.2204454989236131e-14</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2.2204453903472574e-14</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>1.1869783605759194e-06</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0.99999881302159499</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>2.2204453903472574e-14</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2.2204428635515765e-14</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5.7389433755237778e-06</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0.99999426105658018</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>2.2204428635515765e-14</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2.2204453583377479e-14</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>1.2446419873739196e-06</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0.99999875535796812</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>2.2204453583377479e-14</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2.2204451618376388e-14</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>1.5986281332462002e-06</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0.99999840137182228</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>2.2204451618376388e-14</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.2199604682308486e-14</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5.553306052917237e-09</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0.89950176120178271</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0.10049823324488917</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2.2204440051653601e-14</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3.682336684170038e-06</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0.99999631766327146</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>2.2204440051653601e-14</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2.2202824378469754e-14</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.00029499721048371696</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>2.2202824378469754e-14</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0.99970500278947194</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2.2201682182415694e-14</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.00050124979352431781</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>2.2201682182415694e-14</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0.99949875020643131</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2.2201659625993885e-14</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.00050532550941717776</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>2.2201659625993885e-14</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0.99949467449053842</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2.220419361458214e-14</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4.8083388335723665e-05</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>2.220419361458214e-14</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0.99995191661161975</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
